--- a/biology/Botanique/Primula_elatior/Primula_elatior.xlsx
+++ b/biology/Botanique/Primula_elatior/Primula_elatior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Primevère élevée, ou Primevère des bois (Primula elatior), est une espèce de plantes à fleurs de la famille des Primulacées.
 Elle est parfois appelée le coucou des bois.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée pérenne.
 Les pétales sont étalés, soudés à la base, de couleur jaune crème avec une partie inférieure jaune d'or.
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de mi-ombre des lisières et sous-bois clairs. Elle tend à régresser dans les forêts trop artificialisées. C'est une espèce à faible pouvoir de dispersion, considérée comme indicatrice de boisements ou forêts anciennes quand elle est abondante. Elle ne se disperse pas au-delà d'une centaine de mètres hors des milieux boisés.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répandue dans toute l'Europe.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle compte cinq sous-espèces :
 Primula elatior elatior
@@ -644,7 +664,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles et fleurs peuvent être consommées crues ou cuites comme  pour la Primevère officinale (Primula veris), la Primevère acaule (Primula vulgaris) et Primula juliae.
 </t>
@@ -675,7 +697,9 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont les mêmes que celles de la primevère acaule et de la primevère officinale.
 Les fleurs, adoucissantes et calmantes, sont utilisées dans des mélanges pectoraux.
